--- a/gropin/schema/metadataschema161.xlsx
+++ b/gropin/schema/metadataschema161.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Listeria monocytogenes in/on Tryptic Soy Broth (gropin ID: 161 )</t>
+          <t>Gropin secondary growth model for Listeria monocytogenes in/on Tryptic Soy Broth (gropin ID: 161 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(10.01,24.975024975025,length.out=21)</t>
+          <t>seq(10.01,24.975024975025,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(0,0.3996003996004,length.out=21)</t>
+          <t>seq(0,0.3996003996004,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,0.3996003996004,length.out=21)</t>
+          <t>seq(0,0.3996003996004,length.out=10)</t>
         </is>
       </c>
     </row>
